--- a/Excel_Data/LogIn_Data.xlsx
+++ b/Excel_Data/LogIn_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA_With_Repository\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD1E0E-8493-4E55-9676-3637BBD0C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5565B56-99E9-4F9F-B991-BAA36C3144DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TC_1</t>
   </si>
@@ -80,7 +80,10 @@
     <t>https://activate.mma.com/internal/launchpad/</t>
   </si>
   <si>
-    <t>Wolverine ACA Merrell LS</t>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>DTC</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -548,7 +551,9 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel_Data/LogIn_Data.xlsx
+++ b/Excel_Data/LogIn_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA_Testing_Doc\Keyword_Driven_Framework_For_ACA\Keyword_Driven_Framework_For_ACA_With_Repository\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keyword_Driven_Framework_ACA\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5565B56-99E9-4F9F-B991-BAA36C3144DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E699A41-D5D1-4673-BD6E-69585251EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activate Launchpad LogIn" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TC_1</t>
   </si>
@@ -71,19 +71,16 @@
     <t>LogIn to Activate Launchpad 1</t>
   </si>
   <si>
-    <t>prosenjit.ghosh@ipsos.com</t>
-  </si>
-  <si>
     <t>Client/Instance Name</t>
   </si>
   <si>
     <t>https://activate.mma.com/internal/launchpad/</t>
   </si>
   <si>
-    <t>Abbott</t>
-  </si>
-  <si>
-    <t>DTC</t>
+    <t>sneha.koley@ipsos.com</t>
+  </si>
+  <si>
+    <t>GM Blazer ACA LS</t>
   </si>
 </sst>
 </file>
@@ -458,20 +455,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="41.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -488,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -502,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
@@ -514,11 +511,11 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
@@ -529,20 +526,20 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
@@ -551,16 +548,15 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{03FFE659-B8EC-4CA8-A218-5BF66B1D24A2}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{81F3D983-52D6-4E54-9053-443134BB4D5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>